--- a/Codes/output_data/上海乡镇单元人口普查统计带房价.xlsx
+++ b/Codes/output_data/上海乡镇单元人口普查统计带房价.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oo/Desktop/5.Learning/esri-ces-contest/Codes/output_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BBFE3B-EB72-8E4E-86CD-5E6AF05866E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3756BD-3795-1348-9A17-F3CC84925F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23880" yWindow="4520" windowWidth="23880" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="4220" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="上海乡镇单元人口普查统计" sheetId="1" r:id="rId1"/>
@@ -1688,7 +1688,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1854,6 +1854,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2289,7 +2297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2297,6 +2305,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2344,15 +2358,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2671,10 +2677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2687,8 +2694,9 @@
     <col min="6" max="6" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="22.1640625" customWidth="1"/>
     <col min="8" max="9" width="20.5" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.6640625" bestFit="1" customWidth="1"/>
@@ -3468,12 +3476,51 @@
       <c r="I12">
         <v>107584.536144578</v>
       </c>
+      <c r="J12">
+        <v>60500</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>12057</v>
+      </c>
+      <c r="M12">
+        <v>29050</v>
+      </c>
+      <c r="N12">
+        <v>31483</v>
+      </c>
+      <c r="O12">
+        <v>4813</v>
+      </c>
+      <c r="P12">
+        <v>44030</v>
+      </c>
+      <c r="Q12">
+        <v>11690</v>
+      </c>
+      <c r="R12">
+        <v>625</v>
+      </c>
+      <c r="S12">
+        <v>6.77E-3</v>
+      </c>
+      <c r="T12">
+        <v>8.7200000000000003E-3</v>
+      </c>
+      <c r="U12">
+        <v>2.68</v>
+      </c>
+      <c r="V12">
+        <v>22587</v>
+      </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C13" t="s">
@@ -3502,7 +3549,7 @@
       <c r="A14" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C14" t="s">
@@ -3531,7 +3578,7 @@
       <c r="A15" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C15" t="s">
@@ -3560,7 +3607,7 @@
       <c r="A16" t="s">
         <v>151</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C16" t="s">
@@ -3589,7 +3636,7 @@
       <c r="A17" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C17" t="s">
@@ -3618,7 +3665,7 @@
       <c r="A18" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C18" t="s">
@@ -3647,7 +3694,7 @@
       <c r="A19" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C19" t="s">
@@ -3676,7 +3723,7 @@
       <c r="A20" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C20" t="s">
@@ -3705,7 +3752,7 @@
       <c r="A21" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C21" t="s">
@@ -3734,7 +3781,7 @@
       <c r="A22" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C22" t="s">
@@ -3763,7 +3810,7 @@
       <c r="A23" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C23" t="s">
@@ -3792,7 +3839,7 @@
       <c r="A24" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C24" t="s">
@@ -3821,7 +3868,7 @@
       <c r="A25" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C25" t="s">
@@ -3850,7 +3897,7 @@
       <c r="A26" t="s">
         <v>356</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>357</v>
       </c>
       <c r="C26" t="s">
@@ -3879,7 +3926,7 @@
       <c r="A27" t="s">
         <v>362</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>363</v>
       </c>
       <c r="C27" t="s">
@@ -3908,7 +3955,7 @@
       <c r="A28" t="s">
         <v>353</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>354</v>
       </c>
       <c r="C28" t="s">
@@ -3937,7 +3984,7 @@
       <c r="A29" t="s">
         <v>366</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>367</v>
       </c>
       <c r="C29" t="s">
@@ -3966,7 +4013,7 @@
       <c r="A30" t="s">
         <v>370</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C30" t="s">
@@ -3995,7 +4042,7 @@
       <c r="A31" t="s">
         <v>358</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>359</v>
       </c>
       <c r="C31" t="s">
@@ -4024,7 +4071,7 @@
       <c r="A32" t="s">
         <v>360</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>361</v>
       </c>
       <c r="C32" t="s">
@@ -4053,7 +4100,7 @@
       <c r="A33" t="s">
         <v>372</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>373</v>
       </c>
       <c r="C33" t="s">
@@ -4082,7 +4129,7 @@
       <c r="A34" t="s">
         <v>364</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>365</v>
       </c>
       <c r="C34" t="s">
@@ -4111,7 +4158,7 @@
       <c r="A35" t="s">
         <v>368</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>369</v>
       </c>
       <c r="C35" t="s">
@@ -4140,7 +4187,7 @@
       <c r="A36" t="s">
         <v>427</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>428</v>
       </c>
       <c r="C36" t="s">
@@ -4169,7 +4216,7 @@
       <c r="A37" t="s">
         <v>439</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>440</v>
       </c>
       <c r="C37" t="s">
@@ -4198,7 +4245,7 @@
       <c r="A38" t="s">
         <v>447</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>448</v>
       </c>
       <c r="C38" t="s">
@@ -4227,7 +4274,7 @@
       <c r="A39" t="s">
         <v>433</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>434</v>
       </c>
       <c r="C39" t="s">
@@ -4256,7 +4303,7 @@
       <c r="A40" t="s">
         <v>429</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>430</v>
       </c>
       <c r="C40" t="s">
@@ -4285,7 +4332,7 @@
       <c r="A41" t="s">
         <v>449</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>450</v>
       </c>
       <c r="C41" t="s">
@@ -4314,7 +4361,7 @@
       <c r="A42" t="s">
         <v>441</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>442</v>
       </c>
       <c r="C42" t="s">
@@ -4343,7 +4390,7 @@
       <c r="A43" t="s">
         <v>424</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>425</v>
       </c>
       <c r="C43" t="s">
@@ -4372,7 +4419,7 @@
       <c r="A44" t="s">
         <v>451</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>452</v>
       </c>
       <c r="C44" t="s">
@@ -4401,7 +4448,7 @@
       <c r="A45" t="s">
         <v>445</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>446</v>
       </c>
       <c r="C45" t="s">
@@ -4430,7 +4477,7 @@
       <c r="A46" t="s">
         <v>437</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>438</v>
       </c>
       <c r="C46" t="s">
@@ -4459,7 +4506,7 @@
       <c r="A47" t="s">
         <v>435</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>436</v>
       </c>
       <c r="C47" t="s">
@@ -4488,7 +4535,7 @@
       <c r="A48" t="s">
         <v>443</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>444</v>
       </c>
       <c r="C48" t="s">
@@ -4517,7 +4564,7 @@
       <c r="A49" t="s">
         <v>431</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>432</v>
       </c>
       <c r="C49" t="s">
@@ -4546,7 +4593,7 @@
       <c r="A50" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C50" t="s">
@@ -4575,7 +4622,7 @@
       <c r="A51" t="s">
         <v>168</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C51" t="s">
@@ -4604,7 +4651,7 @@
       <c r="A52" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C52" t="s">
@@ -4633,7 +4680,7 @@
       <c r="A53" t="s">
         <v>170</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C53" t="s">
@@ -4662,7 +4709,7 @@
       <c r="A54" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C54" t="s">
@@ -4691,7 +4738,7 @@
       <c r="A55" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C55" t="s">
@@ -4720,7 +4767,7 @@
       <c r="A56" t="s">
         <v>157</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C56" t="s">
@@ -4749,7 +4796,7 @@
       <c r="A57" t="s">
         <v>172</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C57" t="s">
@@ -4778,7 +4825,7 @@
       <c r="A58" t="s">
         <v>162</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C58" t="s">
@@ -4807,7 +4854,7 @@
       <c r="A59" t="s">
         <v>322</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>323</v>
       </c>
       <c r="C59" t="s">
@@ -4836,7 +4883,7 @@
       <c r="A60" t="s">
         <v>324</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>325</v>
       </c>
       <c r="C60" t="s">
@@ -4865,7 +4912,7 @@
       <c r="A61" t="s">
         <v>318</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>319</v>
       </c>
       <c r="C61" t="s">
@@ -4894,7 +4941,7 @@
       <c r="A62" t="s">
         <v>326</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>327</v>
       </c>
       <c r="C62" t="s">
@@ -4923,7 +4970,7 @@
       <c r="A63" t="s">
         <v>320</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>321</v>
       </c>
       <c r="C63" t="s">
@@ -4952,7 +4999,7 @@
       <c r="A64" t="s">
         <v>328</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>329</v>
       </c>
       <c r="C64" t="s">
@@ -4981,7 +5028,7 @@
       <c r="A65" t="s">
         <v>313</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>314</v>
       </c>
       <c r="C65" t="s">
@@ -5010,7 +5057,7 @@
       <c r="A66" t="s">
         <v>316</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>317</v>
       </c>
       <c r="C66" t="s">
@@ -5039,7 +5086,7 @@
       <c r="A67" t="s">
         <v>185</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C67" t="s">
@@ -5068,7 +5115,7 @@
       <c r="A68" t="s">
         <v>197</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>198</v>
       </c>
       <c r="C68" t="s">
@@ -5097,7 +5144,7 @@
       <c r="A69" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C69" t="s">
@@ -5126,7 +5173,7 @@
       <c r="A70" t="s">
         <v>181</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C70" t="s">
@@ -5155,7 +5202,7 @@
       <c r="A71" t="s">
         <v>183</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C71" t="s">
@@ -5184,7 +5231,7 @@
       <c r="A72" t="s">
         <v>191</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="4" t="s">
         <v>192</v>
       </c>
       <c r="C72" t="s">
@@ -5213,7 +5260,7 @@
       <c r="A73" t="s">
         <v>195</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="4" t="s">
         <v>196</v>
       </c>
       <c r="C73" t="s">
@@ -5242,7 +5289,7 @@
       <c r="A74" t="s">
         <v>179</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="4" t="s">
         <v>180</v>
       </c>
       <c r="C74" t="s">
@@ -5271,7 +5318,7 @@
       <c r="A75" t="s">
         <v>189</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="4" t="s">
         <v>190</v>
       </c>
       <c r="C75" t="s">
@@ -5300,7 +5347,7 @@
       <c r="A76" t="s">
         <v>199</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C76" t="s">
@@ -5329,7 +5376,7 @@
       <c r="A77" t="s">
         <v>176</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C77" t="s">
@@ -5358,7 +5405,7 @@
       <c r="A78" t="s">
         <v>193</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="4" t="s">
         <v>194</v>
       </c>
       <c r="C78" t="s">
@@ -5387,7 +5434,7 @@
       <c r="A79" t="s">
         <v>391</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="4" t="s">
         <v>392</v>
       </c>
       <c r="C79" t="s">
@@ -5416,7 +5463,7 @@
       <c r="A80" t="s">
         <v>397</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="4" t="s">
         <v>398</v>
       </c>
       <c r="C80" t="s">
@@ -5445,7 +5492,7 @@
       <c r="A81" t="s">
         <v>393</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="4" t="s">
         <v>394</v>
       </c>
       <c r="C81" t="s">
@@ -5474,7 +5521,7 @@
       <c r="A82" t="s">
         <v>377</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="4" t="s">
         <v>378</v>
       </c>
       <c r="C82" t="s">
@@ -5503,7 +5550,7 @@
       <c r="A83" t="s">
         <v>381</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="4" t="s">
         <v>382</v>
       </c>
       <c r="C83" t="s">
@@ -5532,7 +5579,7 @@
       <c r="A84" t="s">
         <v>383</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="4" t="s">
         <v>384</v>
       </c>
       <c r="C84" t="s">
@@ -5561,7 +5608,7 @@
       <c r="A85" t="s">
         <v>379</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="4" t="s">
         <v>380</v>
       </c>
       <c r="C85" t="s">
@@ -5590,7 +5637,7 @@
       <c r="A86" t="s">
         <v>374</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="4" t="s">
         <v>375</v>
       </c>
       <c r="C86" t="s">
@@ -5619,7 +5666,7 @@
       <c r="A87" t="s">
         <v>395</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="4" t="s">
         <v>396</v>
       </c>
       <c r="C87" t="s">
@@ -5648,7 +5695,7 @@
       <c r="A88" t="s">
         <v>387</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="4" t="s">
         <v>388</v>
       </c>
       <c r="C88" t="s">
@@ -5677,7 +5724,7 @@
       <c r="A89" t="s">
         <v>389</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="4" t="s">
         <v>390</v>
       </c>
       <c r="C89" t="s">
@@ -5702,7 +5749,7 @@
         <v>33542.736111111102</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" hidden="1">
       <c r="A90" t="s">
         <v>385</v>
       </c>
@@ -5735,7 +5782,7 @@
       <c r="A91" t="s">
         <v>399</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="4" t="s">
         <v>400</v>
       </c>
       <c r="C91" t="s">
@@ -5764,7 +5811,7 @@
       <c r="A92" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C92" t="s">
@@ -5793,7 +5840,7 @@
       <c r="A93" t="s">
         <v>58</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C93" t="s">
@@ -5822,7 +5869,7 @@
       <c r="A94" t="s">
         <v>73</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C94" t="s">
@@ -5851,7 +5898,7 @@
       <c r="A95" t="s">
         <v>79</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C95" t="s">
@@ -5880,7 +5927,7 @@
       <c r="A96" t="s">
         <v>63</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C96" t="s">
@@ -5909,7 +5956,7 @@
       <c r="A97" t="s">
         <v>81</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C97" t="s">
@@ -5934,7 +5981,7 @@
         <v>41001.354838709602</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" hidden="1">
       <c r="A98" t="s">
         <v>83</v>
       </c>
@@ -5963,7 +6010,7 @@
         <v>33396.068965517203</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" hidden="1">
       <c r="A99" t="s">
         <v>75</v>
       </c>
@@ -5996,7 +6043,7 @@
       <c r="A100" t="s">
         <v>65</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C100" t="s">
@@ -6025,7 +6072,7 @@
       <c r="A101" t="s">
         <v>69</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C101" t="s">
@@ -6054,7 +6101,7 @@
       <c r="A102" t="s">
         <v>67</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C102" t="s">
@@ -6083,7 +6130,7 @@
       <c r="A103" t="s">
         <v>61</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C103" t="s">
@@ -6108,7 +6155,7 @@
         <v>47294.269230769198</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" hidden="1">
       <c r="A104" t="s">
         <v>77</v>
       </c>
@@ -6137,7 +6184,7 @@
         <v>30196.25</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" hidden="1">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -6170,7 +6217,7 @@
       <c r="A106" t="s">
         <v>23</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C106" t="s">
@@ -6195,7 +6242,7 @@
         <v>46883.716981131998</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" hidden="1">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -6224,7 +6271,7 @@
         <v>32836.176470588201</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" hidden="1">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -6253,7 +6300,7 @@
         <v>30354.049504950399</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" hidden="1">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -6282,7 +6329,7 @@
         <v>39708.556451612902</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" hidden="1">
       <c r="A110" t="s">
         <v>31</v>
       </c>
@@ -6311,7 +6358,7 @@
         <v>28510.380434782601</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" hidden="1">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -6340,7 +6387,7 @@
         <v>32094.054545454499</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" hidden="1">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -6369,7 +6416,7 @@
         <v>28872.846153846102</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" hidden="1">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -6398,7 +6445,7 @@
         <v>20616.333333333299</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" hidden="1">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -6431,7 +6478,7 @@
       <c r="A115" t="s">
         <v>7</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C115" t="s">
@@ -6456,7 +6503,7 @@
         <v>40847.060240963801</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" hidden="1">
       <c r="A116" t="s">
         <v>29</v>
       </c>
@@ -6489,7 +6536,7 @@
       <c r="A117" t="s">
         <v>267</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="4" t="s">
         <v>268</v>
       </c>
       <c r="C117" t="s">
@@ -6518,7 +6565,7 @@
       <c r="A118" t="s">
         <v>293</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="4" t="s">
         <v>294</v>
       </c>
       <c r="C118" t="s">
@@ -6547,7 +6594,7 @@
       <c r="A119" t="s">
         <v>243</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C119" t="s">
@@ -6576,7 +6623,7 @@
       <c r="A120" t="s">
         <v>253</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C120" t="s">
@@ -6605,7 +6652,7 @@
       <c r="A121" t="s">
         <v>273</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C121" t="s">
@@ -6634,7 +6681,7 @@
       <c r="A122" t="s">
         <v>255</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="4" t="s">
         <v>256</v>
       </c>
       <c r="C122" t="s">
@@ -6663,7 +6710,7 @@
       <c r="A123" t="s">
         <v>271</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="4" t="s">
         <v>272</v>
       </c>
       <c r="C123" t="s">
@@ -6692,7 +6739,7 @@
       <c r="A124" t="s">
         <v>251</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C124" t="s">
@@ -6721,7 +6768,7 @@
       <c r="A125" t="s">
         <v>307</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="4" t="s">
         <v>308</v>
       </c>
       <c r="C125" t="s">
@@ -6750,7 +6797,7 @@
       <c r="A126" t="s">
         <v>237</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C126" t="s">
@@ -6779,7 +6826,7 @@
       <c r="A127" t="s">
         <v>245</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="4" t="s">
         <v>246</v>
       </c>
       <c r="C127" t="s">
@@ -6808,7 +6855,7 @@
       <c r="A128" t="s">
         <v>287</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C128" t="s">
@@ -6837,7 +6884,7 @@
       <c r="A129" t="s">
         <v>234</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C129" t="s">
@@ -6866,7 +6913,7 @@
       <c r="A130" t="s">
         <v>289</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C130" t="s">
@@ -6895,7 +6942,7 @@
       <c r="A131" t="s">
         <v>311</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="4" t="s">
         <v>312</v>
       </c>
       <c r="C131" t="s">
@@ -6920,7 +6967,7 @@
         <v>62026.6171875</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" hidden="1">
       <c r="A132" t="s">
         <v>269</v>
       </c>
@@ -6953,7 +7000,7 @@
       <c r="A133" t="s">
         <v>261</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C133" t="s">
@@ -6978,7 +7025,7 @@
         <v>53520.588235294097</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" hidden="1">
       <c r="A134" t="s">
         <v>249</v>
       </c>
@@ -7011,7 +7058,7 @@
       <c r="A135" t="s">
         <v>303</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="4" t="s">
         <v>304</v>
       </c>
       <c r="C135" t="s">
@@ -7040,7 +7087,7 @@
       <c r="A136" t="s">
         <v>275</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C136" t="s">
@@ -7069,7 +7116,7 @@
       <c r="A137" t="s">
         <v>297</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="4" t="s">
         <v>298</v>
       </c>
       <c r="C137" t="s">
@@ -7098,7 +7145,7 @@
       <c r="A138" t="s">
         <v>257</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C138" t="s">
@@ -7127,7 +7174,7 @@
       <c r="A139" t="s">
         <v>291</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="4" t="s">
         <v>292</v>
       </c>
       <c r="C139" t="s">
@@ -7152,7 +7199,7 @@
         <v>58698.494949494903</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" hidden="1">
       <c r="A140" t="s">
         <v>295</v>
       </c>
@@ -7185,7 +7232,7 @@
       <c r="A141" t="s">
         <v>305</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C141" t="s">
@@ -7210,7 +7257,7 @@
         <v>41710.910891089101</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" hidden="1">
       <c r="A142" t="s">
         <v>241</v>
       </c>
@@ -7239,7 +7286,7 @@
         <v>31611.307692307601</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" hidden="1">
       <c r="A143" t="s">
         <v>265</v>
       </c>
@@ -7272,7 +7319,7 @@
       <c r="A144" t="s">
         <v>259</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C144" t="s">
@@ -7297,7 +7344,7 @@
         <v>49934.712871287098</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" hidden="1">
       <c r="A145" t="s">
         <v>299</v>
       </c>
@@ -7326,7 +7373,7 @@
         <v>34920.409090909001</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" hidden="1">
       <c r="A146" t="s">
         <v>309</v>
       </c>
@@ -7355,7 +7402,7 @@
         <v>31613.442307692301</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" hidden="1">
       <c r="A147" t="s">
         <v>277</v>
       </c>
@@ -7384,7 +7431,7 @@
         <v>21218.3235294117</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" hidden="1">
       <c r="A148" t="s">
         <v>263</v>
       </c>
@@ -7413,7 +7460,7 @@
         <v>28323.4</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" hidden="1">
       <c r="A149" t="s">
         <v>239</v>
       </c>
@@ -7442,7 +7489,7 @@
         <v>19524.8</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" hidden="1">
       <c r="A150" t="s">
         <v>279</v>
       </c>
@@ -7471,7 +7518,7 @@
         <v>22505.571428571398</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" hidden="1">
       <c r="A151" t="s">
         <v>301</v>
       </c>
@@ -7500,7 +7547,7 @@
         <v>17675.333333333299</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" hidden="1">
       <c r="A152" t="s">
         <v>285</v>
       </c>
@@ -7533,7 +7580,7 @@
       <c r="A153" t="s">
         <v>281</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C153" t="s">
@@ -7562,7 +7609,7 @@
       <c r="A154" t="s">
         <v>247</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C154" t="s">
@@ -7591,7 +7638,7 @@
       <c r="A155" t="s">
         <v>283</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C155" t="s">
@@ -7616,7 +7663,7 @@
         <v>66579.0625</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" hidden="1">
       <c r="A156" t="s">
         <v>349</v>
       </c>
@@ -7645,7 +7692,7 @@
         <v>19493.150000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" hidden="1">
       <c r="A157" t="s">
         <v>339</v>
       </c>
@@ -7674,7 +7721,7 @@
         <v>24377.074074074</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" hidden="1">
       <c r="A158" t="s">
         <v>343</v>
       </c>
@@ -7703,7 +7750,7 @@
         <v>16333.777777777699</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" hidden="1">
       <c r="A159" t="s">
         <v>333</v>
       </c>
@@ -7732,7 +7779,7 @@
         <v>16770.285714285699</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" hidden="1">
       <c r="A160" t="s">
         <v>351</v>
       </c>
@@ -7761,7 +7808,7 @@
         <v>16769.222222222201</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" hidden="1">
       <c r="A161" t="s">
         <v>345</v>
       </c>
@@ -7790,7 +7837,7 @@
         <v>16136.4545454545</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" hidden="1">
       <c r="A162" t="s">
         <v>335</v>
       </c>
@@ -7819,7 +7866,7 @@
         <v>12019.25</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" hidden="1">
       <c r="A163" t="s">
         <v>337</v>
       </c>
@@ -7848,7 +7895,7 @@
         <v>16615.6428571428</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" hidden="1">
       <c r="A164" t="s">
         <v>347</v>
       </c>
@@ -7877,7 +7924,7 @@
         <v>13853.25</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" hidden="1">
       <c r="A165" t="s">
         <v>341</v>
       </c>
@@ -7906,7 +7953,7 @@
         <v>24187.4210526315</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" hidden="1">
       <c r="A166" t="s">
         <v>330</v>
       </c>
@@ -7935,7 +7982,7 @@
         <v>16458</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" hidden="1">
       <c r="A167" t="s">
         <v>232</v>
       </c>
@@ -7964,7 +8011,7 @@
         <v>33857.424242424197</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" hidden="1">
       <c r="A168" t="s">
         <v>228</v>
       </c>
@@ -7993,7 +8040,7 @@
         <v>37571.705882352901</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" hidden="1">
       <c r="A169" t="s">
         <v>214</v>
       </c>
@@ -8022,7 +8069,7 @@
         <v>41644.043478260799</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" hidden="1">
       <c r="A170" t="s">
         <v>222</v>
       </c>
@@ -8051,7 +8098,7 @@
         <v>32793.050847457598</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" hidden="1">
       <c r="A171" t="s">
         <v>218</v>
       </c>
@@ -8080,7 +8127,7 @@
         <v>34974.935483870897</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" hidden="1">
       <c r="A172" t="s">
         <v>204</v>
       </c>
@@ -8109,7 +8156,7 @@
         <v>48124.777777777701</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" hidden="1">
       <c r="A173" t="s">
         <v>210</v>
       </c>
@@ -8138,7 +8185,7 @@
         <v>29262</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" hidden="1">
       <c r="A174" t="s">
         <v>216</v>
       </c>
@@ -8167,7 +8214,7 @@
         <v>39859.367647058803</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" hidden="1">
       <c r="A175" t="s">
         <v>201</v>
       </c>
@@ -8196,7 +8243,7 @@
         <v>30881.8888888888</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" hidden="1">
       <c r="A176" t="s">
         <v>230</v>
       </c>
@@ -8225,7 +8272,7 @@
         <v>43272.974025973999</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" hidden="1">
       <c r="A177" t="s">
         <v>206</v>
       </c>
@@ -8251,7 +8298,7 @@
         <v>310117000000</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" hidden="1">
       <c r="A178" t="s">
         <v>208</v>
       </c>
@@ -8277,7 +8324,7 @@
         <v>310117000000</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" hidden="1">
       <c r="A179" t="s">
         <v>224</v>
       </c>
@@ -8306,7 +8353,7 @@
         <v>31405</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" hidden="1">
       <c r="A180" t="s">
         <v>212</v>
       </c>
@@ -8335,7 +8382,7 @@
         <v>22167.666666666599</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" hidden="1">
       <c r="A181" t="s">
         <v>226</v>
       </c>
@@ -8361,7 +8408,7 @@
         <v>310117000000</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" hidden="1">
       <c r="A182" t="s">
         <v>220</v>
       </c>
@@ -8390,7 +8437,7 @@
         <v>7272</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" hidden="1">
       <c r="A183" t="s">
         <v>401</v>
       </c>
@@ -8419,7 +8466,7 @@
         <v>29878.129629629599</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" hidden="1">
       <c r="A184" t="s">
         <v>408</v>
       </c>
@@ -8448,7 +8495,7 @@
         <v>32204</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" hidden="1">
       <c r="A185" t="s">
         <v>410</v>
       </c>
@@ -8477,7 +8524,7 @@
         <v>26500.357142857101</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" hidden="1">
       <c r="A186" t="s">
         <v>416</v>
       </c>
@@ -8506,7 +8553,7 @@
         <v>28764.705882352901</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" hidden="1">
       <c r="A187" t="s">
         <v>414</v>
       </c>
@@ -8535,7 +8582,7 @@
         <v>19149.5</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" hidden="1">
       <c r="A188" t="s">
         <v>404</v>
       </c>
@@ -8564,7 +8611,7 @@
         <v>21334.333333333299</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" hidden="1">
       <c r="A189" t="s">
         <v>420</v>
       </c>
@@ -8597,7 +8644,7 @@
       <c r="A190" t="s">
         <v>406</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="4" t="s">
         <v>407</v>
       </c>
       <c r="C190" t="s">
@@ -8622,7 +8669,7 @@
         <v>51050.356321838997</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" hidden="1">
       <c r="A191" t="s">
         <v>418</v>
       </c>
@@ -8651,7 +8698,7 @@
         <v>33341.157894736803</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" hidden="1">
       <c r="A192" t="s">
         <v>422</v>
       </c>
@@ -8680,7 +8727,7 @@
         <v>29939.857142857101</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" hidden="1">
       <c r="A193" t="s">
         <v>412</v>
       </c>
@@ -8709,7 +8756,7 @@
         <v>18603.722222222201</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" hidden="1">
       <c r="A194" t="s">
         <v>52</v>
       </c>
@@ -8738,7 +8785,7 @@
         <v>27037.785714285699</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" hidden="1">
       <c r="A195" t="s">
         <v>42</v>
       </c>
@@ -8767,7 +8814,7 @@
         <v>17027.121212121201</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" hidden="1">
       <c r="A196" t="s">
         <v>48</v>
       </c>
@@ -8796,7 +8843,7 @@
         <v>23254.916666666599</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" hidden="1">
       <c r="A197" t="s">
         <v>54</v>
       </c>
@@ -8825,7 +8872,7 @@
         <v>28657.5</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" hidden="1">
       <c r="A198" t="s">
         <v>56</v>
       </c>
@@ -8854,7 +8901,7 @@
         <v>16747.25</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" hidden="1">
       <c r="A199" t="s">
         <v>36</v>
       </c>
@@ -8883,7 +8930,7 @@
         <v>16497</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" hidden="1">
       <c r="A200" t="s">
         <v>44</v>
       </c>
@@ -8912,7 +8959,7 @@
         <v>17483.5555555555</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" hidden="1">
       <c r="A201" t="s">
         <v>46</v>
       </c>
@@ -8941,7 +8988,7 @@
         <v>16672.633333333299</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" hidden="1">
       <c r="A202" t="s">
         <v>33</v>
       </c>
@@ -8970,7 +9017,7 @@
         <v>33876.179487179397</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" hidden="1">
       <c r="A203" t="s">
         <v>38</v>
       </c>
@@ -8999,7 +9046,7 @@
         <v>23397.3181818181</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" hidden="1">
       <c r="A204" t="s">
         <v>40</v>
       </c>
@@ -9028,7 +9075,7 @@
         <v>31592.785714285699</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" hidden="1">
       <c r="A205" t="s">
         <v>50</v>
       </c>
@@ -9057,7 +9104,7 @@
         <v>13321.333333333299</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" hidden="1">
       <c r="A206" t="s">
         <v>122</v>
       </c>
@@ -9086,7 +9133,7 @@
         <v>28344.842105263098</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" hidden="1">
       <c r="A207" t="s">
         <v>108</v>
       </c>
@@ -9115,7 +9162,7 @@
         <v>18594.666666666599</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" hidden="1">
       <c r="A208" t="s">
         <v>112</v>
       </c>
@@ -9144,7 +9191,7 @@
         <v>14850.5</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" hidden="1">
       <c r="A209" t="s">
         <v>92</v>
       </c>
@@ -9170,7 +9217,7 @@
         <v>310151000000</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" hidden="1">
       <c r="A210" t="s">
         <v>88</v>
       </c>
@@ -9199,7 +9246,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" hidden="1">
       <c r="A211" t="s">
         <v>100</v>
       </c>
@@ -9228,7 +9275,7 @@
         <v>13873</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" hidden="1">
       <c r="A212" t="s">
         <v>98</v>
       </c>
@@ -9254,7 +9301,7 @@
         <v>310151000000</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" hidden="1">
       <c r="A213" t="s">
         <v>106</v>
       </c>
@@ -9280,7 +9327,7 @@
         <v>310151000000</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" hidden="1">
       <c r="A214" t="s">
         <v>114</v>
       </c>
@@ -9306,7 +9353,7 @@
         <v>310151000000</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" hidden="1">
       <c r="A215" t="s">
         <v>116</v>
       </c>
@@ -9335,7 +9382,7 @@
         <v>29033.125</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" hidden="1">
       <c r="A216" t="s">
         <v>96</v>
       </c>
@@ -9361,7 +9408,7 @@
         <v>310151000000</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" hidden="1">
       <c r="A217" t="s">
         <v>126</v>
       </c>
@@ -9390,7 +9437,7 @@
         <v>21029.5</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" hidden="1">
       <c r="A218" t="s">
         <v>104</v>
       </c>
@@ -9419,7 +9466,7 @@
         <v>38329</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" hidden="1">
       <c r="A219" t="s">
         <v>110</v>
       </c>
@@ -9448,7 +9495,7 @@
         <v>10919.352941176399</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" hidden="1">
       <c r="A220" t="s">
         <v>118</v>
       </c>
@@ -9477,7 +9524,7 @@
         <v>12550.538461538399</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" hidden="1">
       <c r="A221" t="s">
         <v>102</v>
       </c>
@@ -9506,7 +9553,7 @@
         <v>28432</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" hidden="1">
       <c r="A222" t="s">
         <v>124</v>
       </c>
@@ -9532,7 +9579,7 @@
         <v>310151000000</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" hidden="1">
       <c r="A223" t="s">
         <v>90</v>
       </c>
@@ -9561,7 +9608,7 @@
         <v>22983</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" hidden="1">
       <c r="A224" t="s">
         <v>85</v>
       </c>
@@ -9587,7 +9634,7 @@
         <v>310151000000</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" hidden="1">
       <c r="A225" t="s">
         <v>120</v>
       </c>
@@ -9613,7 +9660,7 @@
         <v>310151000000</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" hidden="1">
       <c r="A226" t="s">
         <v>94</v>
       </c>
@@ -9639,7 +9686,7 @@
         <v>310151000000</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" hidden="1">
       <c r="A227" t="s">
         <v>490</v>
       </c>
@@ -9665,7 +9712,7 @@
         <v>320509000000</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" hidden="1">
       <c r="A228" t="s">
         <v>511</v>
       </c>
@@ -9691,7 +9738,7 @@
         <v>320583000000</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" hidden="1">
       <c r="A229" t="s">
         <v>507</v>
       </c>
@@ -9717,7 +9764,7 @@
         <v>320583000000</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" hidden="1">
       <c r="A230" t="s">
         <v>504</v>
       </c>
@@ -9743,7 +9790,7 @@
         <v>320583000000</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" hidden="1">
       <c r="A231" t="s">
         <v>509</v>
       </c>
@@ -9769,7 +9816,7 @@
         <v>320583000000</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" hidden="1">
       <c r="A232" t="s">
         <v>513</v>
       </c>
@@ -9795,7 +9842,7 @@
         <v>320583000000</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" hidden="1">
       <c r="A233" t="s">
         <v>493</v>
       </c>
@@ -9821,7 +9868,7 @@
         <v>320585000000</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" hidden="1">
       <c r="A234" t="s">
         <v>500</v>
       </c>
@@ -9847,7 +9894,7 @@
         <v>320585000000</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" hidden="1">
       <c r="A235" t="s">
         <v>502</v>
       </c>
@@ -9873,7 +9920,7 @@
         <v>320585000000</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" hidden="1">
       <c r="A236" t="s">
         <v>498</v>
       </c>
@@ -9899,7 +9946,7 @@
         <v>320585000000</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" hidden="1">
       <c r="A237" t="s">
         <v>496</v>
       </c>
@@ -9925,7 +9972,7 @@
         <v>320585000000</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" hidden="1">
       <c r="A238" t="s">
         <v>474</v>
       </c>
@@ -9951,7 +9998,7 @@
         <v>320681000000</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" hidden="1">
       <c r="A239" t="s">
         <v>477</v>
       </c>
@@ -9977,7 +10024,7 @@
         <v>320681000000</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" hidden="1">
       <c r="A240" t="s">
         <v>479</v>
       </c>
@@ -10003,7 +10050,7 @@
         <v>320681000000</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" hidden="1">
       <c r="A241" t="s">
         <v>488</v>
       </c>
@@ -10029,7 +10076,7 @@
         <v>320684000000</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" hidden="1">
       <c r="A242" t="s">
         <v>481</v>
       </c>
@@ -10055,7 +10102,7 @@
         <v>320684000000</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" hidden="1">
       <c r="A243" t="s">
         <v>486</v>
       </c>
@@ -10081,7 +10128,7 @@
         <v>320684000000</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" hidden="1">
       <c r="A244" t="s">
         <v>484</v>
       </c>
@@ -10107,7 +10154,7 @@
         <v>320684000000</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" hidden="1">
       <c r="A245" t="s">
         <v>515</v>
       </c>
@@ -10133,7 +10180,7 @@
         <v>330421000000</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" hidden="1">
       <c r="A246" t="s">
         <v>520</v>
       </c>
@@ -10159,7 +10206,7 @@
         <v>330421000000</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" hidden="1">
       <c r="A247" t="s">
         <v>518</v>
       </c>
@@ -10185,7 +10232,7 @@
         <v>330421000000</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" hidden="1">
       <c r="A248" t="s">
         <v>522</v>
       </c>
@@ -10211,7 +10258,7 @@
         <v>330421000000</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" hidden="1">
       <c r="A249" t="s">
         <v>529</v>
       </c>
@@ -10237,7 +10284,7 @@
         <v>330482000000</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" hidden="1">
       <c r="A250" t="s">
         <v>524</v>
       </c>
@@ -10263,7 +10310,7 @@
         <v>330482000000</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" hidden="1">
       <c r="A251" t="s">
         <v>527</v>
       </c>
@@ -10289,7 +10336,7 @@
         <v>330482000000</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" hidden="1">
       <c r="A252" t="s">
         <v>531</v>
       </c>
@@ -10316,6 +10363,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V252" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H252">
     <sortCondition ref="D2:D252"/>
   </sortState>
